--- a/resources/invoice.xlsx
+++ b/resources/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web\shopify\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D0DF366B-DF05-4490-95D9-828B9100F66A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6F814667-6651-4AC0-82D3-FFED5690B76F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="1440" windowWidth="16980" windowHeight="5610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,21 +657,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -692,6 +677,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1051,14 +1051,14 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" style="40" customWidth="1"/>
@@ -1069,32 +1069,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -1105,30 +1105,30 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="41" t="s">
         <v>18</v>
       </c>
@@ -1156,11 +1156,11 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1172,11 +1172,11 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
@@ -1184,11 +1184,11 @@
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
@@ -1239,14 +1239,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
@@ -1267,36 +1267,36 @@
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
@@ -1407,6 +1407,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
@@ -1416,12 +1422,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
